--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1065622.869456024</v>
+        <v>-1067521.101560147</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>642526.8877243596</v>
+        <v>549850.6325167454</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>117.2141556742451</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>256.3076122633524</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>27.12635336000223</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>162.5776147681365</v>
+        <v>22.03885654827553</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>253.1386553961459</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>123.7514837462623</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>105.7316179494394</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>167.5990957313719</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>196.1788370630663</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>49.87081671995535</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>160.1036732006758</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>224.7502551838228</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>3.582082778545252e-12</v>
       </c>
       <c r="D13" t="n">
-        <v>70.02215316756894</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>87.90277740092159</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896909</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>8.528507262570894</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>161.024349458187</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>122.65197883716</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>105.741039563286</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2132,7 +2132,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2242,16 +2242,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>194.9576419790507</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>213.7252998437484</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>119.1566697043641</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>169.140840743045</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2612,7 +2612,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,19 +2713,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>49.14757544257668</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,13 +2764,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>149.0799667719507</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898766</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G31" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3016,7 +3016,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224538</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T34" t="n">
         <v>153.4156709287486</v>
@@ -3320,7 +3320,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>562.1725406160808</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C2" t="n">
-        <v>193.2100236756691</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D2" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
         <v>67.86638588177355</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.274048960885</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1712.377470917094</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1338.911712656014</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y2" t="n">
-        <v>948.7723806802026</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4431,19 +4431,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4519,19 +4519,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>274.7355609638946</v>
+        <v>705.8675129455498</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>705.8675129455498</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>485.0749338020197</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1190.010945960184</v>
+        <v>962.1194880117298</v>
       </c>
       <c r="C5" t="n">
-        <v>1190.010945960184</v>
+        <v>962.1194880117298</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.010945960184</v>
+        <v>603.8537894049794</v>
       </c>
       <c r="E5" t="n">
-        <v>804.2226933619395</v>
+        <v>603.8537894049794</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>596.9082886557759</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>178.9444805539628</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>1563.476704221264</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X5" t="n">
-        <v>1190.010945960184</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="Y5" t="n">
-        <v>1190.010945960184</v>
+        <v>1348.719328075852</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>621.3293701160914</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>621.3293701160914</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>621.3293701160914</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V7" t="n">
-        <v>621.3293701160914</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W7" t="n">
-        <v>621.3293701160914</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>393.339819218074</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>393.339819218074</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1717.512263598976</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>1348.549746658564</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>990.2840480518139</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>990.2840480518139</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>579.2981432622064</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2591.745839205326</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2373.111172177389</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2373.111172177389</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598976</v>
+        <v>2373.111172177389</v>
       </c>
       <c r="W8" t="n">
-        <v>1717.512263598976</v>
+        <v>2373.111172177389</v>
       </c>
       <c r="X8" t="n">
-        <v>1717.512263598976</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="Y8" t="n">
-        <v>1717.512263598976</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="9">
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>501.108524424795</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V10" t="n">
-        <v>501.108524424795</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W10" t="n">
-        <v>211.6913543878343</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X10" t="n">
-        <v>211.6913543878343</v>
+        <v>351.9927747426009</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6913543878343</v>
+        <v>351.9927747426009</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5036,7 +5036,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
@@ -5045,46 +5045,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5106,34 +5106,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>246.2867756623457</v>
       </c>
       <c r="L12" t="n">
-        <v>1122.004430061687</v>
+        <v>860.1838454192343</v>
       </c>
       <c r="M12" t="n">
-        <v>1442.339749591389</v>
+        <v>1180.519164948936</v>
       </c>
       <c r="N12" t="n">
-        <v>1786.860405229007</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O12" t="n">
-        <v>2035.613819312969</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>799.8610847926847</v>
+        <v>395.2468244550183</v>
       </c>
       <c r="C13" t="n">
-        <v>630.9249018647778</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207687</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5230,19 +5230,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.499100520942</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>981.5095496229244</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y13" t="n">
-        <v>981.5095496229244</v>
+        <v>576.8952892852581</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,13 +5288,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>97.21709146028584</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M15" t="n">
-        <v>865.5852378527474</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N15" t="n">
-        <v>1559.410052240715</v>
+        <v>1569.24764349283</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1818.001057576792</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2338.301679312539</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.6713633309776</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C16" t="n">
-        <v>653.6713633309776</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D16" t="n">
-        <v>503.5547239186418</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.226513319151</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1155.441098108657</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>866.3124593222151</v>
       </c>
       <c r="V16" t="n">
-        <v>1044.311772267568</v>
+        <v>866.3124593222151</v>
       </c>
       <c r="W16" t="n">
-        <v>881.6609142289949</v>
+        <v>576.8952892852544</v>
       </c>
       <c r="X16" t="n">
-        <v>653.6713633309776</v>
+        <v>576.8952892852544</v>
       </c>
       <c r="Y16" t="n">
-        <v>653.6713633309776</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="17">
@@ -5495,43 +5495,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5595,22 +5595,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>664.5909712050459</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.32563221405</v>
+        <v>894.5540770733951</v>
       </c>
       <c r="M18" t="n">
-        <v>2056.693778606511</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="N18" t="n">
-        <v>2103.272883640391</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O18" t="n">
-        <v>2103.272883640391</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>372.9624052601988</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>204.0262223322919</v>
       </c>
       <c r="D19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="X19" t="n">
-        <v>441.900558318119</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="Y19" t="n">
-        <v>221.1079791745888</v>
+        <v>554.6108700904385</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,40 +5735,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>754.8724882112625</v>
       </c>
       <c r="M21" t="n">
-        <v>2056.693778606511</v>
+        <v>1392.079260326853</v>
       </c>
       <c r="N21" t="n">
-        <v>2623.573505376138</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1301.989359467952</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1078.203944257458</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>789.0753054710162</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V22" t="n">
-        <v>789.0753054710162</v>
+        <v>972.0370157789685</v>
       </c>
       <c r="W22" t="n">
-        <v>499.6581354340557</v>
+        <v>972.0370157789685</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>744.0474648809511</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>744.0474648809511</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5984,16 +5984,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6014,25 +6014,25 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M24" t="n">
-        <v>2056.693778606511</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="N24" t="n">
-        <v>2623.573505376138</v>
+        <v>1632.846287851668</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>1881.59970193563</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2401.900323671377</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>536.9315552689001</v>
+        <v>563.4612303381598</v>
       </c>
       <c r="C25" t="n">
-        <v>367.9953723409932</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D25" t="n">
-        <v>367.9953723409932</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E25" t="n">
-        <v>367.9953723409932</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1328.066936474019</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1328.066936474019</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>1038.938297687577</v>
       </c>
       <c r="V25" t="n">
-        <v>1275.130855347408</v>
+        <v>784.2538094816899</v>
       </c>
       <c r="W25" t="n">
-        <v>985.7136853104475</v>
+        <v>784.2538094816899</v>
       </c>
       <c r="X25" t="n">
-        <v>757.7241344124302</v>
+        <v>784.2538094816899</v>
       </c>
       <c r="Y25" t="n">
-        <v>536.9315552689001</v>
+        <v>563.4612303381598</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,10 +6209,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6227,25 +6227,25 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6312,16 +6312,16 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>2056.693778606511</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N27" t="n">
-        <v>2623.573505376138</v>
+        <v>1953.181607381369</v>
       </c>
       <c r="O27" t="n">
-        <v>2623.573505376138</v>
+        <v>2201.935021465331</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>760.7169704793943</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>591.7807875514874</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>441.6641481391516</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>293.7510545567585</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>146.8611070588481</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6412,22 +6412,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,19 +6473,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6549,7 +6549,7 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>2056.693778606511</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G31" t="n">
         <v>221.5295092103129</v>
@@ -6616,16 +6616,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,19 +6689,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,19 +6710,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6792,10 +6792,10 @@
         <v>1288.32563221405</v>
       </c>
       <c r="O33" t="n">
-        <v>1957.789393516709</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2478.090015252456</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229679</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083212</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850452</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,25 +6926,25 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6956,10 +6956,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>323.6581146605672</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>323.6581146605672</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>323.6581146605672</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N36" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229665</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7172,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7254,25 +7254,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>263.5382936126482</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>263.5382936126482</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6581146605672</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,7 +7330,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
@@ -7436,22 +7436,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108319</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229661</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506714</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045196</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010305</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7652,22 +7652,22 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,49 +7807,49 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254963</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649698</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8790,7 +8790,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,10 +9006,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9027,7 +9027,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9252,19 +9252,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>178.3913131276568</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9492,16 +9492,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9723,19 +9723,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9966,13 +9966,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>198.568530941954</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>202.8611258896133</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>92.93335645406059</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>161.5637735924734</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>78.59331985064341</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23470,19 +23470,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238293</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>130.6818759511732</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.3923027210324</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>125.498648878404</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.18000134477732</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>42.87443345492638</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,16 +24130,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>2.963168004552585</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>38.41234348007961</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>26.26437831856713</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24412,22 +24412,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>28.77996924055827</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,19 +24601,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>117.3459930208009</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24652,13 +24652,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>103.0576765518773</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>-5.258016244624741e-13</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
     </row>
     <row r="32">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142387.7480708446</v>
+        <v>142387.7480708447</v>
       </c>
       <c r="C2" t="n">
         <v>143682.3097262497</v>
@@ -26329,7 +26329,7 @@
         <v>136860.1709081981</v>
       </c>
       <c r="H2" t="n">
-        <v>136860.170908198</v>
+        <v>136860.1709081981</v>
       </c>
       <c r="I2" t="n">
         <v>136860.1709081981</v>
@@ -26338,13 +26338,13 @@
         <v>136860.1709081981</v>
       </c>
       <c r="K2" t="n">
-        <v>143682.3097262492</v>
+        <v>143682.3097262491</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262495</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="M2" t="n">
-        <v>143682.3097262494</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="N2" t="n">
         <v>143682.3097262494</v>
@@ -26353,7 +26353,7 @@
         <v>143682.3097262494</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262495</v>
+        <v>143682.3097262494</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371256</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>54505.51210371256</v>
+        <v>54505.51210371251</v>
       </c>
     </row>
     <row r="4">
@@ -26427,22 +26427,22 @@
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758927</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
+        <v>787.7936905758824</v>
+      </c>
+      <c r="H4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="H4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="I4" t="n">
-        <v>787.7936905759301</v>
+        <v>787.7936905759314</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.793690575885</v>
       </c>
       <c r="K4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="L4" t="n">
         <v>23206.58093189636</v>
@@ -26454,10 +26454,10 @@
         <v>23206.58093189635</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26488,19 +26488,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-665276.1017008811</v>
+        <v>-665294.5954388155</v>
       </c>
       <c r="C6" t="n">
         <v>-78235.9075177788</v>
       </c>
       <c r="D6" t="n">
-        <v>-78235.90751777883</v>
+        <v>-78235.90751777886</v>
       </c>
       <c r="E6" t="n">
-        <v>-481074.9852079905</v>
+        <v>-481172.4443339626</v>
       </c>
       <c r="F6" t="n">
-        <v>44085.05126890555</v>
+        <v>43987.59214293346</v>
       </c>
       <c r="G6" t="n">
-        <v>44085.05126890556</v>
+        <v>43987.59214293346</v>
       </c>
       <c r="H6" t="n">
-        <v>44085.05126890553</v>
+        <v>43987.59214293346</v>
       </c>
       <c r="I6" t="n">
-        <v>44085.05126890556</v>
+        <v>43987.59214293344</v>
       </c>
       <c r="J6" t="n">
-        <v>-132338.1679236874</v>
+        <v>-132435.6270496596</v>
       </c>
       <c r="K6" t="n">
-        <v>-31744.88912938513</v>
+        <v>-31744.88912938512</v>
       </c>
       <c r="L6" t="n">
-        <v>22760.62297432769</v>
+        <v>22760.62297432791</v>
       </c>
       <c r="M6" t="n">
-        <v>-112040.3922595094</v>
+        <v>-112040.3922595092</v>
       </c>
       <c r="N6" t="n">
-        <v>22760.62297432768</v>
+        <v>22760.62297432765</v>
       </c>
       <c r="O6" t="n">
-        <v>22760.62297432762</v>
+        <v>22760.62297432763</v>
       </c>
       <c r="P6" t="n">
         <v>-31744.88912938486</v>
@@ -26710,10 +26710,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964065</v>
@@ -26722,10 +26722,10 @@
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26744,10 +26744,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>237.4688859464378</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>359.1115852960514</v>
       </c>
     </row>
     <row r="3">
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.623767952376511e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,13 +27591,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>123.9453835684545</v>
+        <v>102.9203681958421</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>153.7373903455656</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>200.1712890180948</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>106.4139210005795</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>118.6827785106058</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>217.6053329577287</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>124.5448960890162</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>19.72830698126145</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,16 +28065,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>61.53161905815489</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-1.298977755714201e-12</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31376,7 +31376,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>167.900586832999</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31616,25 +31616,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>73.87984549392741</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31850,25 +31850,25 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>34.71740571127339</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>111.3199910445496</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,19 +32075,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>352.8324835862115</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32096,16 +32096,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>218.0578460103733</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,13 +32315,13 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>278.479916701576</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -32333,10 +32333,10 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,22 +32558,22 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>320.0721743291803</v>
       </c>
       <c r="N21" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
@@ -32795,19 +32795,19 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>153.8167911024564</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
@@ -33032,16 +33032,16 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>171.3135836203301</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -33196,7 +33196,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540898</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946992</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>212.6272478467031</v>
       </c>
       <c r="N30" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33430,7 +33430,7 @@
         <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927201</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
         <v>562.4526372540886</v>
@@ -33512,13 +33512,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>273.8226464915811</v>
       </c>
       <c r="P33" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>76.85750667712375</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
@@ -33737,28 +33737,28 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>212.6272478467031</v>
       </c>
       <c r="N36" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33892,7 +33892,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961215</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33916,7 +33916,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S38" t="n">
         <v>76.06970478104648</v>
@@ -33974,28 +33974,28 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>212.6272478467031</v>
       </c>
       <c r="N39" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
@@ -34153,7 +34153,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S41" t="n">
         <v>76.06970478104648</v>
@@ -34372,7 +34372,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130445</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
@@ -34390,7 +34390,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S44" t="n">
         <v>76.06970478104648</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,10 +35024,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
@@ -35498,13 +35498,13 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>382.7180679714936</v>
       </c>
       <c r="O12" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>295.8083522701565</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>700.8331458464318</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
         <v>251.2660748322851</v>
@@ -35744,7 +35744,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>288.1533596602009</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>405.1037147397956</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>47.04960104432353</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>643.6432041571619</v>
       </c>
       <c r="N21" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>223.912304752284</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,19 +36680,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>355.801944845937</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36838,13 +36838,13 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
         <v>570.6060255109123</v>
@@ -36917,10 +36917,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="N30" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37005,7 +37005,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37078,7 +37078,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37160,13 +37160,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>525.0887213238661</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>146.9530203269513</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>60.72709196759495</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="N36" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>60.72709196759495</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="N39" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38020,7 +38020,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
